--- a/The Project.xlsx
+++ b/The Project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\OneDrive\Documentos\PROJETOS\OUTROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\OneDrive\Documentos\PROJETOS\PLANILHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="14_{FBAAA31E-B43C-4F70-80D9-3FC29C9E37D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{611DBCB1-2C09-443C-82F8-15E83DB53269}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="14_{FBAAA31E-B43C-4F70-80D9-3FC29C9E37D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EC90ABBE-B876-456D-B7F2-9CB65F8BE521}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26520" windowHeight="11490" firstSheet="2" activeTab="7" xr2:uid="{CD8D6024-3018-49A4-82B6-2C8784DA9FAE}"/>
   </bookViews>
@@ -1130,6 +1130,15 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,6 +1175,9 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,18 +1187,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,6 +1194,159 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A72364E8-4A15-4A35-9C9F-8299B326E1D7}"/>
   </cellStyles>
   <dxfs count="105">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="0.34998626667073579"/>
@@ -1213,6 +1366,269 @@
           <bgColor rgb="FFFF8997"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8997"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1633,452 +2049,6 @@
           <bgColor rgb="FFFF8997"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8997"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Bahnschrift"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2545,6 +2515,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9824,32 +9824,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A1AB7E3-EB63-4FD0-990D-1C38AFE42261}" name="Tabela2" displayName="Tabela2" ref="D5:P35" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103" tableBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A1AB7E3-EB63-4FD0-990D-1C38AFE42261}" name="Tabela2" displayName="Tabela2" ref="D5:P35" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
   <autoFilter ref="D5:P35" xr:uid="{AEDA9DF6-C1F3-4BA3-B308-5815F8D1FE8C}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{56BD45FD-D6C5-4C24-A3DA-B36F19D0EAE1}" name="Data" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{BC6FFE2B-BF3E-4BA0-96EE-978CF2B06159}" name="Cliente" dataDxfId="100" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{43281571-012E-4A23-A56F-F0184718625D}" name="Qtd.Total" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{56BD45FD-D6C5-4C24-A3DA-B36F19D0EAE1}" name="Data" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{BC6FFE2B-BF3E-4BA0-96EE-978CF2B06159}" name="Cliente" dataDxfId="97" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{43281571-012E-4A23-A56F-F0184718625D}" name="Qtd.Total" dataDxfId="96">
       <calculatedColumnFormula>Pedidos!$G6+Pedidos!$I6+Pedidos!$L6+Pedidos!$N6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2D6C8798-6731-4D5C-BBB3-2CB0AE77C1D3}" name="Qtd.Sal(15kg)" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{F76D6588-15B7-4B81-A38F-7A9E7672722D}" name="Preço 15kg" dataDxfId="97">
+    <tableColumn id="4" xr3:uid="{2D6C8798-6731-4D5C-BBB3-2CB0AE77C1D3}" name="Qtd.Sal(15kg)" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{F76D6588-15B7-4B81-A38F-7A9E7672722D}" name="Preço 15kg" dataDxfId="94">
       <calculatedColumnFormula>_xlfn.IFS(Pedidos!$E6=$T$5,Pedidos!$G6*$U$5,Pedidos!$E6=$T$6,Pedidos!$G6*$U$6,Pedidos!$E6=$T$7,Pedidos!$G6*$U$7,Pedidos!$E6=$T$8,Pedidos!$G6*$U$8,Pedidos!$E6=$T$9,Pedidos!$G6*$U$9,Pedidos!$E6=$T$10,Pedidos!$G6*$U$10,Pedidos!$E6=$T$11,Pedidos!$G6*$U$11,Pedidos!$E6=$T$12,Pedidos!$G6*$U$12,Pedidos!$E6=$T$13,Pedidos!$G6*$U$13,Pedidos!$E6=$T$14,Pedidos!$G6*$U$14,Pedidos!$E6=$T$15,Pedidos!$G6*$U$15,Pedidos!$E6=$T$15,Pedidos!$G6*$U$15,Pedidos!$E6=$T$16,Pedidos!$G6*$U$16,Pedidos!$E6=$T$17,Pedidos!$G6*$U$17,Pedidos!$E6=$T$18,Pedidos!$G6*$U$18,Pedidos!$E6=$T$20,Pedidos!$G6*$U$20,Pedidos!$E6=$T$21,Pedidos!$G6*$U$21,Pedidos!$E6=$T$22,Pedidos!$G6*$U$22,Pedidos!$E6=$T$23,Pedidos!$G6*$U$23,Pedidos!$E6=$T$24,Pedidos!$G6*$U$24,Pedidos!$E6=$T$25,Pedidos!$G6*$U$25,Pedidos!$E6=$T$26,Pedidos!$G6*$U$26,Pedidos!$E6=$T$27,Pedidos!$G6*$U$27,Pedidos!$E6=$T$28,Pedidos!$G6*$U$28,Pedidos!$E6=$T$29,Pedidos!$G6*$U$29,Pedidos!$E6=$T$31,Pedidos!$G6*$U$31,Pedidos!$E6=$T$32,Pedidos!$G6*$U$32,Pedidos!$E6=$T$33,Pedidos!$G6*$U$33,Pedidos!$E6=$T$34,Pedidos!$G6*$U$34,Pedidos!$E6=$T$35,Pedidos!$G6*$U$35,Pedidos!$E6=$T$36,Pedidos!$G6*$U$36,Pedidos!$E6=$T$37,Pedidos!$G6*$U$37,Pedidos!$E6=$T$38,Pedidos!$G6*$U$38,Pedidos!$E6=$T$40,Pedidos!$G6*$U$40,Pedidos!$E6=$T$41,Pedidos!$G6*$U$41,Pedidos!$E6=$T$42,Pedidos!$G6*$U$42,Pedidos!$E6=$T$43,Pedidos!$G6*$U$43,Pedidos!$E6=$T$44,Pedidos!$G6*$U$44,Pedidos!$E6=$T$45,Pedidos!$G6*$U$45,Pedidos!$E6=$T$46,Pedidos!$G6*$U$46,Pedidos!$E6=$T$47,Pedidos!$G6*$U$47,Pedidos!$E6=$T$48,Pedidos!$G6*$U$48,Pedidos!$E6=$T$49,Pedidos!$G6*$U$49,Pedidos!$E6=$T$50,Pedidos!$G6*$U$50,Pedidos!$E6=$T$51,Pedidos!$G6*$U$51,Pedidos!$E6=$T$52,Pedidos!$G6*$U$52,Pedidos!$E6=$T$53,Pedidos!$G6*$U$53,Pedidos!$E6=$T$54,Pedidos!$G6*$U$54,Pedidos!$E6=$T$55,Pedidos!$G6*$U$55,Pedidos!$E6=$T$56,Pedidos!$G6*$U$56,Pedidos!$E6=$T$57,Pedidos!$G6*$U$57,Pedidos!$E6=$T$58,Pedidos!$G6*$U$58,Pedidos!$E6=$T$59,Pedidos!$G6*$U$59,Pedidos!$E6=$T$60,Pedidos!$G6*$U$60,Tabela2[[#This Row],[Cliente]]=$T$19,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$U$19,Tabela2[[#This Row],[Cliente]]=$T$30,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$30,Tabela2[[#This Row],[Cliente]]=$T$39,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$39)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{66D14CAB-33D7-4870-8792-8EE988D3B6C6}" name="Qtd.Sal(5kg)" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{ADF83233-4099-4376-9E2C-F70D0CFCEAC9}" name="Preço 5kg" dataDxfId="95">
+    <tableColumn id="6" xr3:uid="{66D14CAB-33D7-4870-8792-8EE988D3B6C6}" name="Qtd.Sal(5kg)" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{ADF83233-4099-4376-9E2C-F70D0CFCEAC9}" name="Preço 5kg" dataDxfId="92">
       <calculatedColumnFormula>IFERROR(_xlfn.IFS(Tabela2[[#This Row],[Cliente]]=$T$5,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$5,Tabela2[[#This Row],[Cliente]]=$T$6,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$6,Tabela2[[#This Row],[Cliente]]=$T$7,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$7,Tabela2[[#This Row],[Cliente]]=$T$8,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$8,Tabela2[[#This Row],[Cliente]]=$T$9,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$9,Tabela2[[#This Row],[Cliente]]=$T$10,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$10,Tabela2[[#This Row],[Cliente]]=$T$11,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$11,Tabela2[[#This Row],[Cliente]]=$T$12,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$12,Tabela2[[#This Row],[Cliente]]=$T$13,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$13,Tabela2[[#This Row],[Cliente]]=$T$14,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$14,Tabela2[[#This Row],[Cliente]]=$T$15,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$15,Tabela2[[#This Row],[Cliente]]=$T$16,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$16,Tabela2[[#This Row],[Cliente]]=$T$17,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$17,Tabela2[[#This Row],[Cliente]]=$T$18,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$18,Tabela2[[#This Row],[Cliente]]=$T$19,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$19,Tabela2[[#This Row],[Cliente]]=$T$20,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$20,Tabela2[[#This Row],[Cliente]]=$T$21,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$21,Tabela2[[#This Row],[Cliente]]=$T$22,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$22,Tabela2[[#This Row],[Cliente]]=$T$23,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$23,Tabela2[[#This Row],[Cliente]]=$T$24,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$24,Tabela2[[#This Row],[Cliente]]=$T$25,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$25,Tabela2[[#This Row],[Cliente]]=$T$26,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$26,Tabela2[[#This Row],[Cliente]]=$T$27,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$27,Tabela2[[#This Row],[Cliente]]=$T$28,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$28,Tabela2[[#This Row],[Cliente]]=$T$29,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$29,Tabela2[[#This Row],[Cliente]]=$T$30,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$30,Tabela2[[#This Row],[Cliente]]=$T$31,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$31,Tabela2[[#This Row],[Cliente]]=$T$32,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$33,Tabela2[[#This Row],[Cliente]]=$T$34,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$34,Tabela2[[#This Row],[Cliente]]=$T$35,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$35,Tabela2[[#This Row],[Cliente]]=$T$36,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$36,Tabela2[[#This Row],[Cliente]]=$T$37,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$37,Tabela2[[#This Row],[Cliente]]=$T$38,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$38,Tabela2[[#This Row],[Cliente]]=$T$39,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$39,Tabela2[[#This Row],[Cliente]]=$T$40,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$40,Tabela2[[#This Row],[Cliente]]=$T$41,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$41,Tabela2[[#This Row],[Cliente]]=$T$42,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$42,Tabela2[[#This Row],[Cliente]]=$T$43,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$43,Tabela2[[#This Row],[Cliente]]=$T$44,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$44,Tabela2[[#This Row],[Cliente]]=$T$45,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$45,Tabela2[[#This Row],[Cliente]]=$T$46,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$46,Tabela2[[#This Row],[Cliente]]=$T$46,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$46,Tabela2[[#This Row],[Cliente]]=$T$47,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$47,Tabela2[[#This Row],[Cliente]]=$T$47,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$47,Tabela2[[#This Row],[Cliente]]=$T$48,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$48,Tabela2[[#This Row],[Cliente]]=$T$49,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$49,Tabela2[[#This Row],[Cliente]]=$T$50,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$50,Tabela2[[#This Row],[Cliente]]=$T$51,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$51,Tabela2[[#This Row],[Cliente]]=$T$52,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$52,Tabela2[[#This Row],[Cliente]]=$T$53,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$53,Tabela2[[#This Row],[Cliente]]=$T$54,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$54,Tabela2[[#This Row],[Cliente]]=$T$55,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$55,Tabela2[[#This Row],[Cliente]]=$T$56,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$56,Tabela2[[#This Row],[Cliente]]=$T$57,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$57,Tabela2[[#This Row],[Cliente]]=$T$58,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$58,Tabela2[[#This Row],[Cliente]]=$T$59,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$59,Tabela2[[#This Row],[Cliente]]=$T$60,Tabela2[[#This Row],[Qtd.Sal(5kg)]]*$V$60),"R$ 0,00")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D210CAC2-FF2B-4571-A713-884E9DDC9E0F}" name="Coluna1" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{2FAADD19-486A-4188-89E1-166EB45AA28D}" name="Qtd.(Pele 12kg)" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{E3485962-E742-4065-BC5D-2CC575C11C0C}" name="Preço Pele 12kg" dataDxfId="92">
+    <tableColumn id="8" xr3:uid="{D210CAC2-FF2B-4571-A713-884E9DDC9E0F}" name="Coluna1" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{2FAADD19-486A-4188-89E1-166EB45AA28D}" name="Qtd.(Pele 12kg)" dataDxfId="90"/>
+    <tableColumn id="10" xr3:uid="{E3485962-E742-4065-BC5D-2CC575C11C0C}" name="Preço Pele 12kg" dataDxfId="89">
       <calculatedColumnFormula>_xlfn.IFS(Tabela2[[#This Row],[Cliente]]=$T$5,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$5,Tabela2[[#This Row],[Cliente]]=$T$6,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$6,Tabela2[[#This Row],[Cliente]]=$T$7,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$7,Tabela2[[#This Row],[Cliente]]=$T$8,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$8,Tabela2[[#This Row],[Cliente]]=$T$9,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$9,Tabela2[[#This Row],[Cliente]]=$T$10,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$10,Tabela2[[#This Row],[Cliente]]=$T$11,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$11,Tabela2[[#This Row],[Cliente]]=$T$12,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$12,Tabela2[[#This Row],[Cliente]]=$T$13,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$13,Tabela2[[#This Row],[Cliente]]=$T$14,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$14,Tabela2[[#This Row],[Cliente]]=$T$15,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$15,Tabela2[[#This Row],[Cliente]]=$T$16,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$16,Tabela2[[#This Row],[Cliente]]=$T$17,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$17,Tabela2[[#This Row],[Cliente]]=$T$18,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$18,Tabela2[[#This Row],[Cliente]]=$T$19,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$19,Tabela2[[#This Row],[Cliente]]=$T$20,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$20,Tabela2[[#This Row],[Cliente]]=$T$21,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$21,Tabela2[[#This Row],[Cliente]]=$T$22,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$22,Tabela2[[#This Row],[Cliente]]=$T$23,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$23,Tabela2[[#This Row],[Cliente]]=$T$24,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$24,Tabela2[[#This Row],[Cliente]]=$T$25,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$25,Tabela2[[#This Row],[Cliente]]=$T$26,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$26,Tabela2[[#This Row],[Cliente]]=$T$27,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$27,Tabela2[[#This Row],[Cliente]]=$T$28,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$28,Tabela2[[#This Row],[Cliente]]=$T$29,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$29,Tabela2[[#This Row],[Cliente]]=$T$30,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$30,Tabela2[[#This Row],[Cliente]]=$T$31,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$31,Tabela2[[#This Row],[Cliente]]=$T$32,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$32,Tabela2[[#This Row],[Cliente]]=$T$33,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$33,Tabela2[[#This Row],[Cliente]]=$T$34,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$34,Tabela2[[#This Row],[Cliente]]=$T$35,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$35,Tabela2[[#This Row],[Cliente]]=$T$36,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$36,Tabela2[[#This Row],[Cliente]]=$T$37,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$37,Tabela2[[#This Row],[Cliente]]=$T$38,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$38,Tabela2[[#This Row],[Cliente]]=$T$39,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$39,Tabela2[[#This Row],[Cliente]]=$T$40,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$40,Tabela2[[#This Row],[Cliente]]=$T$41,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$41,Tabela2[[#This Row],[Cliente]]=$T$42,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$42,Tabela2[[#This Row],[Cliente]]=$T$43,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$43,Tabela2[[#This Row],[Cliente]]=$T$44,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$44,Tabela2[[#This Row],[Cliente]]=$T$45,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$45,Tabela2[[#This Row],[Cliente]]=$T$46,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$46,Tabela2[[#This Row],[Cliente]]=$T$47,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$47,Tabela2[[#This Row],[Cliente]]=$T$48,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$48,Tabela2[[#This Row],[Cliente]]=$T$49,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$49,Tabela2[[#This Row],[Cliente]]=$T$50,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$50,Tabela2[[#This Row],[Cliente]]=$T$51,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$51,Tabela2[[#This Row],[Cliente]]=$T$52,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$52,Tabela2[[#This Row],[Cliente]]=$T$53,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$53,Tabela2[[#This Row],[Cliente]]=$T$54,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$54,Tabela2[[#This Row],[Cliente]]=$T$55,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$55,Tabela2[[#This Row],[Cliente]]=$T$56,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$56,Tabela2[[#This Row],[Cliente]]=$T$57,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$57,Tabela2[[#This Row],[Cliente]]=$T$58,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$58,Tabela2[[#This Row],[Cliente]]=$T$59,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$59,Tabela2[[#This Row],[Cliente]]=$T$60,Tabela2[[#This Row],[Qtd.(Pele 12kg)]]*$X$60)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E19AF008-841A-409C-A262-9BE03A823B50}" name="Qtd.Pele(9kg)" dataDxfId="91"/>
-    <tableColumn id="12" xr3:uid="{EAE70F0C-F0CB-4F5A-8F34-EE8974756258}" name="Preço (9kg)" dataDxfId="90">
+    <tableColumn id="11" xr3:uid="{E19AF008-841A-409C-A262-9BE03A823B50}" name="Qtd.Pele(9kg)" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{EAE70F0C-F0CB-4F5A-8F34-EE8974756258}" name="Preço (9kg)" dataDxfId="87">
       <calculatedColumnFormula>IFERROR(_xlfn.IFS(Pedidos!$E6=Clientes_Cadastrados!D5,Pedidos!$N6*Clientes_Cadastrados!K5,Pedidos!$E6=Clientes_Cadastrados!D6,Pedidos!$N6*Clientes_Cadastrados!K6,Pedidos!$E6=Clientes_Cadastrados!D7,Pedidos!$N6*Clientes_Cadastrados!K7,Pedidos!$E6=Clientes_Cadastrados!D8,Pedidos!$N6*Clientes_Cadastrados!K8,Pedidos!$E6=Clientes_Cadastrados!D9,Pedidos!$N6*Clientes_Cadastrados!K9,Pedidos!$E6=Clientes_Cadastrados!D10,Pedidos!$N6*Clientes_Cadastrados!K10,Pedidos!$E6=Clientes_Cadastrados!D11,Pedidos!$N6*Clientes_Cadastrados!K11,Pedidos!$E6=Clientes_Cadastrados!D12,Pedidos!$N6*Clientes_Cadastrados!K12,Pedidos!$E6=Clientes_Cadastrados!D13,Pedidos!$N6*Clientes_Cadastrados!K13,Pedidos!$E6=Clientes_Cadastrados!D14,Pedidos!$N6*Clientes_Cadastrados!K14,Pedidos!$E6=Clientes_Cadastrados!D15,Pedidos!$N6*Clientes_Cadastrados!K15,Pedidos!$E6=Clientes_Cadastrados!D16,Pedidos!$N6*Clientes_Cadastrados!K16,Pedidos!$E6=Clientes_Cadastrados!D17,Pedidos!$N6*Clientes_Cadastrados!K17,Pedidos!$E6=Clientes_Cadastrados!D18,Pedidos!$N6*Clientes_Cadastrados!K18,Pedidos!$E6=Clientes_Cadastrados!D19,Pedidos!$N6*Clientes_Cadastrados!K19,Pedidos!$E6=Clientes_Cadastrados!D20,Pedidos!$N6*Clientes_Cadastrados!K20,Pedidos!$E6=Clientes_Cadastrados!D21,Pedidos!$N6*Clientes_Cadastrados!K21,Pedidos!$E6=Clientes_Cadastrados!D22,Pedidos!$N6*Clientes_Cadastrados!K22,Pedidos!$E6=Clientes_Cadastrados!D24,Pedidos!$N6*Clientes_Cadastrados!K24,Pedidos!$E6=Clientes_Cadastrados!D25,Pedidos!$N6*Clientes_Cadastrados!K25,Pedidos!$E6=Clientes_Cadastrados!D26,Pedidos!$N6*Clientes_Cadastrados!K26,Pedidos!$E6=Clientes_Cadastrados!D27,Pedidos!$N6*Clientes_Cadastrados!K27,Pedidos!$E6=Clientes_Cadastrados!D28,Pedidos!$N6*Clientes_Cadastrados!K28,Pedidos!$E6=Clientes_Cadastrados!D29,Pedidos!$N6*Clientes_Cadastrados!K29,Pedidos!$E6=Clientes_Cadastrados!D30,Pedidos!$N6*Clientes_Cadastrados!K30,Pedidos!$E6=Clientes_Cadastrados!D31,Pedidos!$N6*Clientes_Cadastrados!K31,Pedidos!$E6=Clientes_Cadastrados!D32,Pedidos!$N6*Clientes_Cadastrados!K32,Pedidos!$E6=Clientes_Cadastrados!D33,Pedidos!$N6*Clientes_Cadastrados!K33,Pedidos!$E6=Clientes_Cadastrados!D34,Pedidos!$N6*Clientes_Cadastrados!K34,Pedidos!$E6=Clientes_Cadastrados!D35,Pedidos!$N6*Clientes_Cadastrados!K35,Pedidos!$E6=Clientes_Cadastrados!D36,Pedidos!$N6*Clientes_Cadastrados!K36,Pedidos!$E6=Clientes_Cadastrados!D37,Pedidos!$N6*Clientes_Cadastrados!K37,Pedidos!$E6=Clientes_Cadastrados!D38,Pedidos!$N6*Clientes_Cadastrados!K38,Pedidos!$E6=Clientes_Cadastrados!D39,Pedidos!$N6*Clientes_Cadastrados!K39,Pedidos!$E6=Clientes_Cadastrados!D40,Pedidos!$N6*Clientes_Cadastrados!K40,Pedidos!$E6=Clientes_Cadastrados!D41,Pedidos!$N6*Clientes_Cadastrados!K41,Pedidos!$E6=Clientes_Cadastrados!D42,Pedidos!$N6*Clientes_Cadastrados!K42,Pedidos!$E6=Clientes_Cadastrados!D43,Pedidos!$N6*Clientes_Cadastrados!K43,Pedidos!$E6=Clientes_Cadastrados!D44,Pedidos!$N6*Clientes_Cadastrados!K44,Pedidos!$E6=Clientes_Cadastrados!D45,Pedidos!$N6*Clientes_Cadastrados!K45,Pedidos!$E6=Clientes_Cadastrados!D46,Pedidos!$N6*Clientes_Cadastrados!K46,Pedidos!$E6=Clientes_Cadastrados!D47,Pedidos!$N6*Clientes_Cadastrados!K47,Pedidos!$E6=Clientes_Cadastrados!D48,Pedidos!$N6*Clientes_Cadastrados!K48,Pedidos!$E6=Clientes_Cadastrados!D49,Pedidos!$N6*Clientes_Cadastrados!K49,Pedidos!$E6=Clientes_Cadastrados!D50,Pedidos!$N6*Clientes_Cadastrados!K50,Pedidos!$E6=Clientes_Cadastrados!D51,Pedidos!$N6*Clientes_Cadastrados!K51,Pedidos!$E6=Clientes_Cadastrados!D52,Pedidos!$N6*Clientes_Cadastrados!K52,Pedidos!$E6=Clientes_Cadastrados!D53,Pedidos!$N6*Clientes_Cadastrados!K53,Pedidos!$E6=Clientes_Cadastrados!D54,Pedidos!$N6*Clientes_Cadastrados!K54,Pedidos!$E6=Clientes_Cadastrados!D55,Pedidos!$N6*Clientes_Cadastrados!K55,Pedidos!$E6=Clientes_Cadastrados!D56,Pedidos!$N6*Clientes_Cadastrados!K56,Pedidos!$E6=Clientes_Cadastrados!D57,Pedidos!$N6*Clientes_Cadastrados!K57,Pedidos!$E6=Clientes_Cadastrados!D58,Pedidos!$N6*Clientes_Cadastrados!K58,Pedidos!$E6=Clientes_Cadastrados!D59,Pedidos!$N6*Clientes_Cadastrados!K59,Pedidos!$E6=Clientes_Cadastrados!D60,Pedidos!$N6*Clientes_Cadastrados!K60,Pedidos!$E6=Clientes_Cadastrados!D61,Pedidos!$N6*Clientes_Cadastrados!K61)," 0")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{31E59013-2BA9-4C7A-A440-97844B6932C7}" name="Valor Total" dataDxfId="89">
+    <tableColumn id="13" xr3:uid="{31E59013-2BA9-4C7A-A440-97844B6932C7}" name="Valor Total" dataDxfId="86">
       <calculatedColumnFormula>Tabela2[[#This Row],[Preço 15kg]]+Tabela2[[#This Row],[Preço 5kg]]+Tabela2[[#This Row],[Preço Pele 12kg]]+O6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9858,21 +9858,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D22166EC-A560-425C-BCDB-4DC5E75A04E8}" name="Tabela4" displayName="Tabela4" ref="B4:M35" headerRowDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D22166EC-A560-425C-BCDB-4DC5E75A04E8}" name="Tabela4" displayName="Tabela4" ref="B4:M35" headerRowDxfId="43">
   <autoFilter ref="B4:M35" xr:uid="{FC7241C8-48F5-4709-8E31-78123ED18D1E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E9EA4335-3DEB-4D36-9D89-D7522F970D2E}" name="Data" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{67B93EB3-8B6F-477E-B2D5-829EED20725A}" name="Pimentinha" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{E6EE796D-0504-4A48-85B8-DDD5890E26B3}" name="Salg. Sabor Pimenta Mexicana" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{667E0974-558E-46CA-9589-B65F1C37A9AD}" name="Bolinha de Bacon" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{815DEFB2-F577-4518-B4B8-BC61B6E9B561}" name="Pastelzinho de Queijo" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{384E1A7D-2822-483E-8C2D-AB920AF6F765}" name="Pastelzinho de Pizza" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{B1EBAE26-BF7A-4A46-BBDA-440C9C07DA3E}" name="Salg. Sabor Churrasco" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{D486BE85-A040-4501-A240-5D5FF0273466}" name="Salg. Sabor Costela c/Limão" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{5F0829E1-C67B-4781-80B3-8506A090C2EF}" name="Salg. Sabor Picanha" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{31B5D8AE-FBEB-486F-A8BE-714F05FDC7E1}" name="Salg. Sabor Cebola &amp; Salsa" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{05ED1ABB-2854-4D05-BB2C-8B3A5B754492}" name="Baconzitos" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{C6030ED6-4B18-4400-9720-BBB8CAE4F2B4}" name="Total por dia" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="1" xr3:uid="{E9EA4335-3DEB-4D36-9D89-D7522F970D2E}" name="Data" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{67B93EB3-8B6F-477E-B2D5-829EED20725A}" name="Pimentinha" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{E6EE796D-0504-4A48-85B8-DDD5890E26B3}" name="Salg. Sabor Pimenta Mexicana" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{667E0974-558E-46CA-9589-B65F1C37A9AD}" name="Bolinha de Bacon" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{815DEFB2-F577-4518-B4B8-BC61B6E9B561}" name="Pastelzinho de Queijo" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{384E1A7D-2822-483E-8C2D-AB920AF6F765}" name="Pastelzinho de Pizza" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{B1EBAE26-BF7A-4A46-BBDA-440C9C07DA3E}" name="Salg. Sabor Churrasco" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D486BE85-A040-4501-A240-5D5FF0273466}" name="Salg. Sabor Costela c/Limão" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{5F0829E1-C67B-4781-80B3-8506A090C2EF}" name="Salg. Sabor Picanha" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{31B5D8AE-FBEB-486F-A8BE-714F05FDC7E1}" name="Salg. Sabor Cebola &amp; Salsa" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{05ED1ABB-2854-4D05-BB2C-8B3A5B754492}" name="Baconzitos" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{C6030ED6-4B18-4400-9720-BBB8CAE4F2B4}" name="Total por dia" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>SUM(Tabela4[[#This Row],[Pimentinha]:[Baconzitos]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9881,11 +9881,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3063A617-62EF-41DF-9117-FB7E7C7972DE}" name="Tabela5" displayName="Tabela5" ref="B38:L69" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3063A617-62EF-41DF-9117-FB7E7C7972DE}" name="Tabela5" displayName="Tabela5" ref="B38:L69" headerRowDxfId="18">
   <autoFilter ref="B38:L69" xr:uid="{CF70EDF5-5A32-45E1-9FC2-0E9377D54DE6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5A2ADD06-F31D-45AE-A2E0-F9CB7C18E1F8}" name="Data" totalsRowLabel="Total" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{9ABB45D5-6176-4C4D-A8A3-558F248B0B8A}" name="Pimentinha" totalsRowFunction="sum" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{5A2ADD06-F31D-45AE-A2E0-F9CB7C18E1F8}" name="Data" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{9ABB45D5-6176-4C4D-A8A3-558F248B0B8A}" name="Pimentinha" totalsRowFunction="sum" dataDxfId="15">
       <calculatedColumnFormula>SUM(C9:C38)*10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{142A10FC-BBB5-4C23-A9A4-0B792B1F16F3}" name="Salg. Sabor Pimenta Mexicana" totalsRowFunction="sum"/>
@@ -9896,7 +9896,7 @@
     <tableColumn id="8" xr3:uid="{EEB3504D-D458-40A7-9116-52BFF0F2D309}" name="Salg. Sabor Costela c/Limão" totalsRowFunction="sum"/>
     <tableColumn id="9" xr3:uid="{A7340F22-E5E3-499B-AA38-CE0D0F19B9F9}" name="Salg. Sabor Picanha" totalsRowFunction="sum"/>
     <tableColumn id="10" xr3:uid="{C3E53876-DB0A-4AE6-86DB-DC9612A20C4F}" name="Salg. Sabor Cebola &amp; Salsa" totalsRowFunction="sum"/>
-    <tableColumn id="11" xr3:uid="{418ED255-A6DC-4FE9-9574-A7015DD795FC}" name="Total por dia" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="11" xr3:uid="{418ED255-A6DC-4FE9-9574-A7015DD795FC}" name="Total por dia" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Pimentinha]:[Salg. Sabor Cebola &amp; Salsa]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9905,11 +9905,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EC18F38-182F-471A-A7EB-B5544E2770EC}" name="Tabela6" displayName="Tabela6" ref="B4:C35" totalsRowCount="1" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EC18F38-182F-471A-A7EB-B5544E2770EC}" name="Tabela6" displayName="Tabela6" ref="B4:C35" totalsRowCount="1" tableBorderDxfId="8">
   <autoFilter ref="B4:C34" xr:uid="{C08C4C99-1DA3-4ED9-8678-880A1599EA75}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8DB3B47C-95AD-42BB-B58C-D126AE0BA710}" name="Data" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{F66D5D83-AABE-4814-AC75-8E4D9ADDBCC3}" name="Pele Listrada" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="1" xr3:uid="{8DB3B47C-95AD-42BB-B58C-D126AE0BA710}" name="Data" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F66D5D83-AABE-4814-AC75-8E4D9ADDBCC3}" name="Pele Listrada" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUBTOTAL(109,Tabela6[Pele Listrada])*12</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9921,8 +9921,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{53E01353-37FC-4EAC-9521-2BDAE974AA7F}" name="Tabela7" displayName="Tabela7" ref="E4:F35" totalsRowCount="1">
   <autoFilter ref="E4:F34" xr:uid="{29AD491B-4037-4332-A823-0BBBD7CF6CF8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00C52FF9-6294-4559-B503-8B75311C5905}" name="Data" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{5D919922-C87D-43F3-BCB6-8BC3CFA2B4E6}" name="Pele Listrada" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="1" xr3:uid="{00C52FF9-6294-4559-B503-8B75311C5905}" name="Data" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5D919922-C87D-43F3-BCB6-8BC3CFA2B4E6}" name="Pele Listrada" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(109,Tabela7[Pele Listrada])*9</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10351,16 +10351,16 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G4" s="6"/>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="86"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="89"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
@@ -12401,17 +12401,17 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="87"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
@@ -14511,18 +14511,18 @@
       <c r="O2" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
@@ -14923,14 +14923,14 @@
     <mergeCell ref="H4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F15 F17:F25 K6 K8">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="4" operator="greaterThan">
       <formula>1800</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="5" operator="between">
       <formula>1000</formula>
       <formula>1800</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="6" operator="lessThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15003,21 +15003,21 @@
       <c r="B4" s="55"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="91" t="s">
+      <c r="L4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
       <c r="S4"/>
@@ -15039,7 +15039,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="95" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -15108,7 +15108,7 @@
       <c r="Z5" s="30"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="93"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="74">
         <v>44866</v>
       </c>
@@ -15179,7 +15179,7 @@
       <c r="Z6" s="30"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="93"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="75">
         <v>44867</v>
       </c>
@@ -15250,7 +15250,7 @@
       <c r="Z7" s="30"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="93"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="74">
         <v>44868</v>
       </c>
@@ -15321,7 +15321,7 @@
       <c r="Z8" s="30"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="93"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="75">
         <v>44869</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="Z9" s="30"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C10" s="93"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="74">
         <v>44870</v>
       </c>
@@ -15463,7 +15463,7 @@
       <c r="Z10" s="30"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C11" s="93"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="75">
         <v>44871</v>
       </c>
@@ -15534,7 +15534,7 @@
       <c r="Z11" s="30"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="93"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="74">
         <v>44872</v>
       </c>
@@ -15605,7 +15605,7 @@
       <c r="Z12" s="30"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="93"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="75">
         <v>44873</v>
       </c>
@@ -15676,7 +15676,7 @@
       <c r="Z13" s="30"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="93"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="74">
         <v>44874</v>
       </c>
@@ -15747,7 +15747,7 @@
       <c r="Z14" s="30"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="93"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="75">
         <v>44875</v>
       </c>
@@ -15818,7 +15818,7 @@
       <c r="Z15" s="30"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="93"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="74">
         <v>44876</v>
       </c>
@@ -15889,7 +15889,7 @@
       <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C17" s="93"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="75">
         <v>44877</v>
       </c>
@@ -15960,7 +15960,7 @@
       <c r="Z17" s="30"/>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C18" s="93"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="74">
         <v>44878</v>
       </c>
@@ -16031,7 +16031,7 @@
       <c r="Z18" s="30"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="93"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="75">
         <v>44879</v>
       </c>
@@ -16102,7 +16102,7 @@
       <c r="Z19" s="30"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="93"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="74">
         <v>44880</v>
       </c>
@@ -16173,7 +16173,7 @@
       <c r="Z20" s="30"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="93"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="75">
         <v>44881</v>
       </c>
@@ -16244,7 +16244,7 @@
       <c r="Z21" s="30"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="93"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="74">
         <v>44882</v>
       </c>
@@ -16315,7 +16315,7 @@
       <c r="Z22" s="30"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="93"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="75">
         <v>44883</v>
       </c>
@@ -16386,7 +16386,7 @@
       <c r="Z23" s="30"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C24" s="93"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="74">
         <v>44884</v>
       </c>
@@ -16457,7 +16457,7 @@
       <c r="Z24" s="30"/>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C25" s="93"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="75">
         <v>44885</v>
       </c>
@@ -16528,7 +16528,7 @@
       <c r="Z25" s="30"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="93"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="74">
         <v>44886</v>
       </c>
@@ -16599,7 +16599,7 @@
       <c r="Z26" s="30"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="93"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="75">
         <v>44887</v>
       </c>
@@ -16670,7 +16670,7 @@
       <c r="Z27" s="30"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="93"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="74">
         <v>44888</v>
       </c>
@@ -16741,7 +16741,7 @@
       <c r="Z28" s="30"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="93"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="75">
         <v>44889</v>
       </c>
@@ -16812,7 +16812,7 @@
       <c r="Z29" s="30"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="93"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="74">
         <v>44890</v>
       </c>
@@ -16883,7 +16883,7 @@
       <c r="Z30" s="30"/>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C31" s="93"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="75">
         <v>44891</v>
       </c>
@@ -16954,7 +16954,7 @@
       <c r="Z31" s="30"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C32" s="93"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="74">
         <v>44892</v>
       </c>
@@ -17025,7 +17025,7 @@
       <c r="Z32" s="30"/>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C33" s="93"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="75">
         <v>44893</v>
       </c>
@@ -17096,7 +17096,7 @@
       <c r="Z33" s="30"/>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="93"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="74">
         <v>44894</v>
       </c>
@@ -17167,7 +17167,7 @@
       <c r="Z34" s="30"/>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C35" s="94"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="75">
         <v>44895</v>
       </c>
@@ -19051,38 +19051,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
       <c r="L3" s="18" t="s">
         <v>37</v>
       </c>
@@ -19853,18 +19853,18 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37"/>
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
       <c r="N37" s="55"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -21227,25 +21227,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -21800,7 +21800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91593CE6-5A6E-43C0-A979-EF772C68CE8B}">
   <dimension ref="B2:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
@@ -21824,16 +21824,16 @@
       <c r="D2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="K2" s="98" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="K2" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -21932,11 +21932,11 @@
       <c r="K6" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="99" t="str">
+      <c r="L6" s="103" t="str">
         <f>_xlfn.IFS(M5=M3,K3,M5=M4,K4)</f>
         <v>Picanha</v>
       </c>
-      <c r="M6" s="99"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="61" t="str">
         <f>L5</f>
         <v>2kg</v>
@@ -22129,7 +22129,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="102">
+      <c r="B19" s="86">
         <v>44866</v>
       </c>
       <c r="C19" s="44">
@@ -22147,7 +22147,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="102">
+      <c r="B20" s="86">
         <v>44867</v>
       </c>
       <c r="C20" s="44">
@@ -22165,7 +22165,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="102">
+      <c r="B21" s="86">
         <v>44868</v>
       </c>
       <c r="C21" s="44">
@@ -22183,7 +22183,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="102">
+      <c r="B22" s="86">
         <v>44869</v>
       </c>
       <c r="C22" s="44">
@@ -22203,7 +22203,7 @@
       <c r="I22" s="63"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="102">
+      <c r="B23" s="86">
         <v>44870</v>
       </c>
       <c r="C23" s="44">
@@ -22212,18 +22212,18 @@
       <c r="F23" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="99" t="str">
+      <c r="G23" s="103" t="str">
         <f>_xlfn.IFS(H22=H3,F3,H22=H4,F4,H22=H5,F5,H22=H6,F6,H22=H7,F7,H22=H8,F8,H22=H9,F9,H22=H10,F10,H22=H11,F11,H22=H12,F12,H22=H13,F415,H22=H14,F14,H22=H15,F15,H22=H16,F16,H22=H17,F17,H22=H18,F18,H22=H19,F19,H22=H20,F20,H22=H21,F21)</f>
         <v>Bancon II</v>
       </c>
-      <c r="H23" s="99"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="61" t="str">
         <f>G22</f>
         <v>15kg</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="102">
+      <c r="B24" s="86">
         <v>44871</v>
       </c>
       <c r="C24" s="44">
@@ -22231,7 +22231,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="102">
+      <c r="B25" s="86">
         <v>44872</v>
       </c>
       <c r="C25" s="44">
@@ -22251,7 +22251,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="102">
+      <c r="B26" s="86">
         <v>44873</v>
       </c>
       <c r="C26" s="44">
@@ -22275,7 +22275,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="102">
+      <c r="B27" s="86">
         <v>44874</v>
       </c>
       <c r="C27" s="44">
@@ -22283,7 +22283,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="102">
+      <c r="B28" s="86">
         <v>44875</v>
       </c>
       <c r="C28" s="44">
@@ -22291,7 +22291,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="102">
+      <c r="B29" s="86">
         <v>44876</v>
       </c>
       <c r="C29" s="44">
@@ -22303,13 +22303,13 @@
       <c r="G29" s="101"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="102">
+      <c r="B30" s="86">
         <v>44877</v>
       </c>
       <c r="C30" s="44">
         <v>0</v>
       </c>
-      <c r="F30" s="104">
+      <c r="F30" s="88">
         <v>44866</v>
       </c>
       <c r="G30" s="44">
@@ -22317,13 +22317,13 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="102">
+      <c r="B31" s="86">
         <v>44878</v>
       </c>
       <c r="C31" s="44">
         <v>5</v>
       </c>
-      <c r="F31" s="104">
+      <c r="F31" s="88">
         <v>44867</v>
       </c>
       <c r="G31" s="44">
@@ -22331,13 +22331,13 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="102">
+      <c r="B32" s="86">
         <v>44879</v>
       </c>
       <c r="C32" s="44">
         <v>5</v>
       </c>
-      <c r="F32" s="104">
+      <c r="F32" s="88">
         <v>44868</v>
       </c>
       <c r="G32" s="44">
@@ -22345,13 +22345,13 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="102">
+      <c r="B33" s="86">
         <v>44880</v>
       </c>
       <c r="C33" s="44">
         <v>5</v>
       </c>
-      <c r="F33" s="104">
+      <c r="F33" s="88">
         <v>44869</v>
       </c>
       <c r="G33" s="44">
@@ -22359,13 +22359,13 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="102">
+      <c r="B34" s="86">
         <v>44881</v>
       </c>
       <c r="C34" s="44">
         <v>5</v>
       </c>
-      <c r="F34" s="104">
+      <c r="F34" s="88">
         <v>44870</v>
       </c>
       <c r="G34" s="44">
@@ -22373,13 +22373,13 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="102">
+      <c r="B35" s="86">
         <v>44882</v>
       </c>
       <c r="C35" s="44">
         <v>5</v>
       </c>
-      <c r="F35" s="104">
+      <c r="F35" s="88">
         <v>44871</v>
       </c>
       <c r="G35" s="44">
@@ -22387,13 +22387,13 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="102">
+      <c r="B36" s="86">
         <v>44883</v>
       </c>
       <c r="C36" s="44">
         <v>5</v>
       </c>
-      <c r="F36" s="104">
+      <c r="F36" s="88">
         <v>44872</v>
       </c>
       <c r="G36" s="44">
@@ -22401,13 +22401,13 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="102">
+      <c r="B37" s="86">
         <v>44884</v>
       </c>
       <c r="C37" s="44">
         <v>10</v>
       </c>
-      <c r="F37" s="104">
+      <c r="F37" s="88">
         <v>44873</v>
       </c>
       <c r="G37" s="44">
@@ -22415,13 +22415,13 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="102">
+      <c r="B38" s="86">
         <v>44885</v>
       </c>
       <c r="C38" s="44">
         <v>5</v>
       </c>
-      <c r="F38" s="104">
+      <c r="F38" s="88">
         <v>44874</v>
       </c>
       <c r="G38" s="44">
@@ -22429,13 +22429,13 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="102">
+      <c r="B39" s="86">
         <v>44886</v>
       </c>
       <c r="C39" s="44">
         <v>5</v>
       </c>
-      <c r="F39" s="104">
+      <c r="F39" s="88">
         <v>44875</v>
       </c>
       <c r="G39" s="44">
@@ -22443,13 +22443,13 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="102">
+      <c r="B40" s="86">
         <v>44887</v>
       </c>
       <c r="C40" s="44">
         <v>5</v>
       </c>
-      <c r="F40" s="104">
+      <c r="F40" s="88">
         <v>44876</v>
       </c>
       <c r="G40" s="44">
@@ -22457,13 +22457,13 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="102">
+      <c r="B41" s="86">
         <v>44888</v>
       </c>
       <c r="C41" s="44">
         <v>5</v>
       </c>
-      <c r="F41" s="104">
+      <c r="F41" s="88">
         <v>44877</v>
       </c>
       <c r="G41" s="44">
@@ -22471,13 +22471,13 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="102">
+      <c r="B42" s="86">
         <v>44889</v>
       </c>
       <c r="C42" s="44">
         <v>5</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="88">
         <v>44878</v>
       </c>
       <c r="G42" s="44">
@@ -22485,13 +22485,13 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="102">
+      <c r="B43" s="86">
         <v>44890</v>
       </c>
       <c r="C43" s="44">
         <v>5</v>
       </c>
-      <c r="F43" s="104">
+      <c r="F43" s="88">
         <v>44879</v>
       </c>
       <c r="G43" s="44">
@@ -22499,13 +22499,13 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="102">
+      <c r="B44" s="86">
         <v>44891</v>
       </c>
       <c r="C44" s="44">
         <v>5</v>
       </c>
-      <c r="F44" s="104">
+      <c r="F44" s="88">
         <v>44880</v>
       </c>
       <c r="G44" s="44">
@@ -22513,13 +22513,13 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="102">
+      <c r="B45" s="86">
         <v>44892</v>
       </c>
       <c r="C45" s="44">
         <v>5</v>
       </c>
-      <c r="F45" s="104">
+      <c r="F45" s="88">
         <v>44881</v>
       </c>
       <c r="G45" s="44">
@@ -22527,13 +22527,13 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="102">
+      <c r="B46" s="86">
         <v>44893</v>
       </c>
       <c r="C46" s="44">
         <v>5</v>
       </c>
-      <c r="F46" s="104">
+      <c r="F46" s="88">
         <v>44882</v>
       </c>
       <c r="G46" s="44">
@@ -22541,13 +22541,13 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="102">
+      <c r="B47" s="86">
         <v>44894</v>
       </c>
       <c r="C47" s="44">
         <v>5</v>
       </c>
-      <c r="F47" s="104">
+      <c r="F47" s="88">
         <v>44883</v>
       </c>
       <c r="G47" s="44">
@@ -22555,13 +22555,13 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="102">
+      <c r="B48" s="86">
         <v>44895</v>
       </c>
       <c r="C48" s="44">
         <v>5</v>
       </c>
-      <c r="F48" s="104">
+      <c r="F48" s="88">
         <v>44884</v>
       </c>
       <c r="G48" s="44">
@@ -22576,7 +22576,7 @@
         <f>SUM(C19:C48)*15</f>
         <v>3285</v>
       </c>
-      <c r="F49" s="104">
+      <c r="F49" s="88">
         <v>44885</v>
       </c>
       <c r="G49" s="44">
@@ -22587,11 +22587,11 @@
       <c r="B50" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="103">
+      <c r="C50" s="87">
         <f>C49/'Estoque - Novembro'!F16*100/100</f>
         <v>0.12042230287033982</v>
       </c>
-      <c r="F50" s="104">
+      <c r="F50" s="88">
         <v>44886</v>
       </c>
       <c r="G50" s="44">
@@ -22599,7 +22599,7 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="104">
+      <c r="F51" s="88">
         <v>44887</v>
       </c>
       <c r="G51" s="44">
@@ -22611,7 +22611,7 @@
         <v>149</v>
       </c>
       <c r="C52" s="101"/>
-      <c r="F52" s="104">
+      <c r="F52" s="88">
         <v>44888</v>
       </c>
       <c r="G52" s="44">
@@ -22619,13 +22619,13 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="102">
+      <c r="B53" s="86">
         <v>44866</v>
       </c>
       <c r="C53" s="44">
         <v>5</v>
       </c>
-      <c r="F53" s="104">
+      <c r="F53" s="88">
         <v>44889</v>
       </c>
       <c r="G53" s="44">
@@ -22633,13 +22633,13 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="102">
+      <c r="B54" s="86">
         <v>44867</v>
       </c>
       <c r="C54" s="44">
         <v>5</v>
       </c>
-      <c r="F54" s="104">
+      <c r="F54" s="88">
         <v>44890</v>
       </c>
       <c r="G54" s="44">
@@ -22647,13 +22647,13 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="102">
+      <c r="B55" s="86">
         <v>44868</v>
       </c>
       <c r="C55" s="44">
         <v>5</v>
       </c>
-      <c r="F55" s="104">
+      <c r="F55" s="88">
         <v>44891</v>
       </c>
       <c r="G55" s="44">
@@ -22661,13 +22661,13 @@
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="102">
+      <c r="B56" s="86">
         <v>44869</v>
       </c>
       <c r="C56" s="44">
         <v>5</v>
       </c>
-      <c r="F56" s="104">
+      <c r="F56" s="88">
         <v>44892</v>
       </c>
       <c r="G56" s="44">
@@ -22675,13 +22675,13 @@
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="102">
+      <c r="B57" s="86">
         <v>44870</v>
       </c>
       <c r="C57" s="44">
         <v>5</v>
       </c>
-      <c r="F57" s="104">
+      <c r="F57" s="88">
         <v>44893</v>
       </c>
       <c r="G57" s="44">
@@ -22689,13 +22689,13 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="102">
+      <c r="B58" s="86">
         <v>44871</v>
       </c>
       <c r="C58" s="44">
         <v>5</v>
       </c>
-      <c r="F58" s="104">
+      <c r="F58" s="88">
         <v>44894</v>
       </c>
       <c r="G58" s="44">
@@ -22703,13 +22703,13 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="102">
+      <c r="B59" s="86">
         <v>44872</v>
       </c>
       <c r="C59" s="44">
         <v>5</v>
       </c>
-      <c r="F59" s="104">
+      <c r="F59" s="88">
         <v>44895</v>
       </c>
       <c r="G59" s="44">
@@ -22717,7 +22717,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="102">
+      <c r="B60" s="86">
         <v>44873</v>
       </c>
       <c r="C60" s="44">
@@ -22732,7 +22732,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="102">
+      <c r="B61" s="86">
         <v>44874</v>
       </c>
       <c r="C61" s="44">
@@ -22741,13 +22741,13 @@
       <c r="F61" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="103">
+      <c r="G61" s="87">
         <f>G60/'Estoque - Novembro'!K7*100/100</f>
         <v>9.0692124105011929E-2</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="102">
+      <c r="B62" s="86">
         <v>44875</v>
       </c>
       <c r="C62" s="44">
@@ -22755,7 +22755,7 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="102">
+      <c r="B63" s="86">
         <v>44876</v>
       </c>
       <c r="C63" s="44">
@@ -22767,13 +22767,13 @@
       <c r="G63" s="101"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="102">
+      <c r="B64" s="86">
         <v>44877</v>
       </c>
       <c r="C64" s="44">
         <v>5</v>
       </c>
-      <c r="F64" s="104">
+      <c r="F64" s="88">
         <v>44866</v>
       </c>
       <c r="G64" s="44">
@@ -22781,13 +22781,13 @@
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="102">
+      <c r="B65" s="86">
         <v>44878</v>
       </c>
       <c r="C65" s="44">
         <v>5</v>
       </c>
-      <c r="F65" s="104">
+      <c r="F65" s="88">
         <v>44867</v>
       </c>
       <c r="G65" s="44">
@@ -22795,13 +22795,13 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="102">
+      <c r="B66" s="86">
         <v>44879</v>
       </c>
       <c r="C66" s="44">
         <v>5</v>
       </c>
-      <c r="F66" s="104">
+      <c r="F66" s="88">
         <v>44868</v>
       </c>
       <c r="G66" s="44">
@@ -22809,13 +22809,13 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="102">
+      <c r="B67" s="86">
         <v>44880</v>
       </c>
       <c r="C67" s="44">
         <v>5</v>
       </c>
-      <c r="F67" s="104">
+      <c r="F67" s="88">
         <v>44869</v>
       </c>
       <c r="G67" s="44">
@@ -22823,13 +22823,13 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="102">
+      <c r="B68" s="86">
         <v>44881</v>
       </c>
       <c r="C68" s="44">
         <v>5</v>
       </c>
-      <c r="F68" s="104">
+      <c r="F68" s="88">
         <v>44870</v>
       </c>
       <c r="G68" s="44">
@@ -22837,13 +22837,13 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="102">
+      <c r="B69" s="86">
         <v>44882</v>
       </c>
       <c r="C69" s="44">
         <v>5</v>
       </c>
-      <c r="F69" s="104">
+      <c r="F69" s="88">
         <v>44871</v>
       </c>
       <c r="G69" s="44">
@@ -22851,13 +22851,13 @@
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="102">
+      <c r="B70" s="86">
         <v>44883</v>
       </c>
       <c r="C70" s="44">
         <v>5</v>
       </c>
-      <c r="F70" s="104">
+      <c r="F70" s="88">
         <v>44872</v>
       </c>
       <c r="G70" s="44">
@@ -22865,13 +22865,13 @@
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="102">
+      <c r="B71" s="86">
         <v>44884</v>
       </c>
       <c r="C71" s="44">
         <v>5</v>
       </c>
-      <c r="F71" s="104">
+      <c r="F71" s="88">
         <v>44873</v>
       </c>
       <c r="G71" s="44">
@@ -22879,13 +22879,13 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="102">
+      <c r="B72" s="86">
         <v>44885</v>
       </c>
       <c r="C72" s="44">
         <v>5</v>
       </c>
-      <c r="F72" s="104">
+      <c r="F72" s="88">
         <v>44874</v>
       </c>
       <c r="G72" s="44">
@@ -22893,13 +22893,13 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="102">
+      <c r="B73" s="86">
         <v>44886</v>
       </c>
       <c r="C73" s="44">
         <v>5</v>
       </c>
-      <c r="F73" s="104">
+      <c r="F73" s="88">
         <v>44875</v>
       </c>
       <c r="G73" s="44">
@@ -22907,13 +22907,13 @@
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="102">
+      <c r="B74" s="86">
         <v>44887</v>
       </c>
       <c r="C74" s="44">
         <v>5</v>
       </c>
-      <c r="F74" s="104">
+      <c r="F74" s="88">
         <v>44876</v>
       </c>
       <c r="G74" s="44">
@@ -22921,13 +22921,13 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="102">
+      <c r="B75" s="86">
         <v>44888</v>
       </c>
       <c r="C75" s="44">
         <v>5</v>
       </c>
-      <c r="F75" s="104">
+      <c r="F75" s="88">
         <v>44877</v>
       </c>
       <c r="G75" s="44">
@@ -22935,13 +22935,13 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="102">
+      <c r="B76" s="86">
         <v>44889</v>
       </c>
       <c r="C76" s="44">
         <v>5</v>
       </c>
-      <c r="F76" s="104">
+      <c r="F76" s="88">
         <v>44878</v>
       </c>
       <c r="G76" s="44">
@@ -22949,13 +22949,13 @@
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="102">
+      <c r="B77" s="86">
         <v>44890</v>
       </c>
       <c r="C77" s="44">
         <v>5</v>
       </c>
-      <c r="F77" s="104">
+      <c r="F77" s="88">
         <v>44879</v>
       </c>
       <c r="G77" s="44">
@@ -22963,13 +22963,13 @@
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="102">
+      <c r="B78" s="86">
         <v>44891</v>
       </c>
       <c r="C78" s="44">
         <v>5</v>
       </c>
-      <c r="F78" s="104">
+      <c r="F78" s="88">
         <v>44880</v>
       </c>
       <c r="G78" s="44">
@@ -22977,13 +22977,13 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="102">
+      <c r="B79" s="86">
         <v>44892</v>
       </c>
       <c r="C79" s="44">
         <v>5</v>
       </c>
-      <c r="F79" s="104">
+      <c r="F79" s="88">
         <v>44881</v>
       </c>
       <c r="G79" s="44">
@@ -22991,13 +22991,13 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="102">
+      <c r="B80" s="86">
         <v>44893</v>
       </c>
       <c r="C80" s="44">
         <v>5</v>
       </c>
-      <c r="F80" s="104">
+      <c r="F80" s="88">
         <v>44882</v>
       </c>
       <c r="G80" s="44">
@@ -23005,13 +23005,13 @@
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="102">
+      <c r="B81" s="86">
         <v>44894</v>
       </c>
       <c r="C81" s="44">
         <v>5</v>
       </c>
-      <c r="F81" s="104">
+      <c r="F81" s="88">
         <v>44883</v>
       </c>
       <c r="G81" s="44">
@@ -23019,13 +23019,13 @@
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="102">
+      <c r="B82" s="86">
         <v>44895</v>
       </c>
       <c r="C82" s="44">
         <v>5</v>
       </c>
-      <c r="F82" s="104">
+      <c r="F82" s="88">
         <v>44884</v>
       </c>
       <c r="G82" s="44">
@@ -23040,7 +23040,7 @@
         <f>SUM(C53:C82)</f>
         <v>150</v>
       </c>
-      <c r="F83" s="104">
+      <c r="F83" s="88">
         <v>44885</v>
       </c>
       <c r="G83" s="44">
@@ -23051,11 +23051,11 @@
       <c r="B84" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="103">
+      <c r="C84" s="87">
         <f>C83/'Estoque - Novembro'!F26*100/100</f>
         <v>3.9287585123101102E-3</v>
       </c>
-      <c r="F84" s="104">
+      <c r="F84" s="88">
         <v>44886</v>
       </c>
       <c r="G84" s="44">
@@ -23063,7 +23063,7 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="104">
+      <c r="F85" s="88">
         <v>44887</v>
       </c>
       <c r="G85" s="44">
@@ -23071,7 +23071,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="104">
+      <c r="F86" s="88">
         <v>44888</v>
       </c>
       <c r="G86" s="44">
@@ -23079,7 +23079,7 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="104">
+      <c r="F87" s="88">
         <v>44889</v>
       </c>
       <c r="G87" s="44">
@@ -23087,7 +23087,7 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="104">
+      <c r="F88" s="88">
         <v>44890</v>
       </c>
       <c r="G88" s="44">
@@ -23095,7 +23095,7 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="104">
+      <c r="F89" s="88">
         <v>44891</v>
       </c>
       <c r="G89" s="44">
@@ -23103,7 +23103,7 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="104">
+      <c r="F90" s="88">
         <v>44892</v>
       </c>
       <c r="G90" s="44">
@@ -23111,7 +23111,7 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="104">
+      <c r="F91" s="88">
         <v>44893</v>
       </c>
       <c r="G91" s="44">
@@ -23119,7 +23119,7 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="104">
+      <c r="F92" s="88">
         <v>44894</v>
       </c>
       <c r="G92" s="44">
@@ -23127,7 +23127,7 @@
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="104">
+      <c r="F93" s="88">
         <v>44895</v>
       </c>
       <c r="G93" s="44">
@@ -23147,21 +23147,22 @@
       <c r="F95" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="G95" s="103">
+      <c r="G95" s="87">
         <f>G94/'Estoque - Novembro'!K9*100/100</f>
         <v>4.3503480278422275E-2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="qesPiIN8f4DKqOvSJQvMImQaID6+dBjO9yUB3FG8JiOqYlHj6HbpbXMD21SdR4fNERSRdZyDGfgLz87HVfw7DQ==" saltValue="PFgJ5166VNmHeLv9eM0WOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -23182,37 +23183,37 @@
   <sheetData>
     <row r="1" spans="1:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/The Project.xlsx
+++ b/The Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\OneDrive\Documentos\PROJETOS\PLANILHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="14_{FBAAA31E-B43C-4F70-80D9-3FC29C9E37D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EC90ABBE-B876-456D-B7F2-9CB65F8BE521}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="14_{FBAAA31E-B43C-4F70-80D9-3FC29C9E37D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9C55F706-2A1A-4472-8371-C45738A5430B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26520" windowHeight="11490" firstSheet="2" activeTab="7" xr2:uid="{CD8D6024-3018-49A4-82B6-2C8784DA9FAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26520" windowHeight="11490" firstSheet="4" activeTab="8" xr2:uid="{CD8D6024-3018-49A4-82B6-2C8784DA9FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Tabela_Auxiliar" sheetId="14" r:id="rId8"/>
     <sheet name="Layout_Dashboard_Relatório" sheetId="13" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="158">
   <si>
     <t>Data</t>
   </si>
@@ -499,6 +502,24 @@
   <si>
     <t>Soma de Estoque 9kg</t>
   </si>
+  <si>
+    <t>Porcentagem de Uso</t>
+  </si>
+  <si>
+    <t>Porcentagem Livre</t>
+  </si>
+  <si>
+    <t>Soma de Estoque Sal 15kg</t>
+  </si>
+  <si>
+    <t>Soma de Estoque Sal 5kg</t>
+  </si>
+  <si>
+    <t>Soma de Estoque Pele 12kg</t>
+  </si>
+  <si>
+    <t>Soma de Estoque Pele 9kg</t>
+  </si>
 </sst>
 </file>
 
@@ -903,7 +924,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1160,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,17 +1199,20 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2617,7 +2644,14 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabela_Auxiliar!$F$25:$J$25</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabela_Auxiliar!$F$25:$J$25</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabela_Auxiliar!$F$25:$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2637,10 +2671,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabela_Auxiliar!$F$26:$J$26</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabela_Auxiliar!$F$26:$J$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabela_Auxiliar!$F$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>12691.5</c:v>
                 </c:pt>
@@ -4072,6 +4113,1466 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Usado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27354388888888886"/>
+                      <c:h val="0.17356666666666665"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B4A2-4A86-8B32-DFAEE0C72099}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.12042230287033982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4A2-4A86-8B32-DFAEE0C72099}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estoque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24606222222222227"/>
+                      <c:h val="0.17356666666666665"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B4A2-4A86-8B32-DFAEE0C72099}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.87957769712966016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4A2-4A86-8B32-DFAEE0C72099}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="86"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="604247424"/>
+        <c:axId val="604248408"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="604247424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604248408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604248408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604247424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Usado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21438333333333334"/>
+                      <c:h val="0.17356666666666665"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3522-4144-A633-D41439D81ECA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.9287585123101102E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3522-4144-A633-D41439D81ECA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estoque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.99607124148768988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3522-4144-A633-D41439D81ECA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="86"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="604247424"/>
+        <c:axId val="604248408"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="604247424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604248408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604248408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604247424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Usado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.0692124105011929E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60AA-4188-AE54-140E478FCC73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estoque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.90930787589498807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60AA-4188-AE54-140E478FCC73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="86"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="604247424"/>
+        <c:axId val="604248408"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="604247424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604248408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604248408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604247424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Usado</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21039666666666668"/>
+                      <c:h val="0.17356666666666665"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EBA6-4A7E-ABCD-D2706F96F687}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.3503480278422275E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBA6-4A7E-ABCD-D2706F96F687}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Estoque</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela_Auxiliar!$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.95649651972157768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBA6-4A7E-ABCD-D2706F96F687}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="86"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="604247424"/>
+        <c:axId val="604248408"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="604247424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604248408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604248408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604247424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4193,6 +5694,166 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6310,6 +7971,1982 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7584,7 +11221,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="Tabela_Auxiliar!B15">
+    <xdr:sp macro="" textlink="Tabela_Auxiliar!I26">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="Retângulo 49">
           <a:extLst>
@@ -7629,7 +11266,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:fld id="{7C5F8BA6-C733-4A3C-8DDA-A4846012F697}" type="TxLink">
+          <a:fld id="{C3F511C3-297D-425E-B05E-791945E918F7}" type="TxLink">
             <a:rPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -7639,7 +11276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t> R$ 12.904,00 </a:t>
+            <a:t> R$ 16.773,85 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1400" b="0">
             <a:solidFill>
@@ -9820,7 +13457,1065 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107556</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>401470</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Retângulo: Cantos Arredondados 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5562C859-B717-4A18-9C31-C3ADEB74EB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4984356" y="703809"/>
+          <a:ext cx="5780314" cy="250372"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6205"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472568</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>153040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Retângulo 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9E32AA-264A-4E3A-88F9-2BE288BB72E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="695325"/>
+          <a:ext cx="491618" cy="267340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SAL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>467158</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379335</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>153040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Retângulo 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58203259-D582-40CD-9BC7-4D68F48A6955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001558" y="695325"/>
+          <a:ext cx="521777" cy="267340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>PELE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="70" name="Gráfico 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED64A1AA-2F14-42E2-ABA1-B62F5B45C659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>605519</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>576719</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="72" name="Gráfico 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC5E191-CAA4-42FE-8EA0-CFE712325244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>243569</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214769</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="76" name="Gráfico 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FA241E-6F3A-4DB6-A31B-408C13D2AF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410937</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>382137</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="77" name="Gráfico 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9296FBB-C831-451F-B89A-ECD56B4B535B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>363568</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Retângulo 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20BA506-BFE6-4180-B22C-059CFCF19AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849968" y="2738578"/>
+          <a:ext cx="903514" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" b="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Estoque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" b="0" baseline="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Livre</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" b="0">
+            <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158219</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>36605</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Retângulo 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428421AD-D226-4E5B-82FC-87C2142DC286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8692619" y="2738578"/>
+          <a:ext cx="1097586" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" b="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Estoque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" b="0" baseline="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Utilizado</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900" b="0">
+            <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380494</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Retângulo: Cantos Arredondados 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16BE216-033C-4829-9AA8-EED2EB0001F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778614" y="2815823"/>
+          <a:ext cx="88280" cy="83634"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Retângulo: Cantos Arredondados 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B20A3E-E155-470D-85C1-0D729AC10F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8665820" y="2815823"/>
+          <a:ext cx="88280" cy="83634"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471038</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Retângulo 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB01EE5-E879-4F91-A505-88A42A211D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="1114425"/>
+          <a:ext cx="490088" cy="267340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>13KG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44180</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>483197</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Retângulo 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F14B3B-572D-4BAC-B56B-318E50A6A76F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749780" y="1114425"/>
+          <a:ext cx="439017" cy="267340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3KG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293857</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>124895</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Retângulo 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB19DDC-2866-4AD9-98BF-F9F548C714D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8218657" y="1114425"/>
+          <a:ext cx="440638" cy="267340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3KG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>462470</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293508</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Retângulo 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46225F0E-4A0B-47F4-BF72-98D36655BC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9606470" y="1114425"/>
+          <a:ext cx="440638" cy="267340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:latin typeface="Bahnschrift Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2KG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Formulas"/>
+      <sheetName val="Tabela_Clientes"/>
+      <sheetName val="Clientes_Cadastrados"/>
+      <sheetName val="Estoque - Novembro"/>
+      <sheetName val="Pedidos"/>
+      <sheetName val="Pedidos - Sal_Nov"/>
+      <sheetName val="Pedidos - Pele_Nov"/>
+      <sheetName val="Tabela_Auxiliar"/>
+      <sheetName val="Layout_Dashboard_Relatório"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="12">
+          <cell r="M12">
+            <v>6.9207836456558772E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>0.93079216354344119</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>1.6400014577790736E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="M17">
+            <v>0.98359998542220928</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>7.9646017699115043E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>0.92035398230088494</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="M24">
+            <v>6.5934065934065936E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="M25">
+            <v>0.93406593406593408</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10351,16 +15046,16 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G4" s="6"/>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="89"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="89"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
@@ -12401,17 +17096,17 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="90"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="90"/>
+      <c r="K4" s="91"/>
     </row>
     <row r="5" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
@@ -14511,18 +19206,18 @@
       <c r="O2" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
@@ -15003,21 +19698,21 @@
       <c r="B4" s="55"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
       <c r="S4"/>
@@ -15039,7 +19734,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="96" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -15108,7 +19803,7 @@
       <c r="Z5" s="30"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="96"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="74">
         <v>44866</v>
       </c>
@@ -15179,7 +19874,7 @@
       <c r="Z6" s="30"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="96"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="75">
         <v>44867</v>
       </c>
@@ -15250,7 +19945,7 @@
       <c r="Z7" s="30"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="74">
         <v>44868</v>
       </c>
@@ -15321,7 +20016,7 @@
       <c r="Z8" s="30"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="96"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="75">
         <v>44869</v>
       </c>
@@ -15392,7 +20087,7 @@
       <c r="Z9" s="30"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="74">
         <v>44870</v>
       </c>
@@ -15463,7 +20158,7 @@
       <c r="Z10" s="30"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="75">
         <v>44871</v>
       </c>
@@ -15534,7 +20229,7 @@
       <c r="Z11" s="30"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="96"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="74">
         <v>44872</v>
       </c>
@@ -15605,7 +20300,7 @@
       <c r="Z12" s="30"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="96"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="75">
         <v>44873</v>
       </c>
@@ -15676,7 +20371,7 @@
       <c r="Z13" s="30"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="96"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="74">
         <v>44874</v>
       </c>
@@ -15747,7 +20442,7 @@
       <c r="Z14" s="30"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="96"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="75">
         <v>44875</v>
       </c>
@@ -15818,7 +20513,7 @@
       <c r="Z15" s="30"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="96"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="74">
         <v>44876</v>
       </c>
@@ -15889,7 +20584,7 @@
       <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C17" s="96"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="75">
         <v>44877</v>
       </c>
@@ -15960,7 +20655,7 @@
       <c r="Z17" s="30"/>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C18" s="96"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="74">
         <v>44878</v>
       </c>
@@ -16031,7 +20726,7 @@
       <c r="Z18" s="30"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="96"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="75">
         <v>44879</v>
       </c>
@@ -16102,7 +20797,7 @@
       <c r="Z19" s="30"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="96"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="74">
         <v>44880</v>
       </c>
@@ -16173,7 +20868,7 @@
       <c r="Z20" s="30"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="96"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="75">
         <v>44881</v>
       </c>
@@ -16244,7 +20939,7 @@
       <c r="Z21" s="30"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="96"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="74">
         <v>44882</v>
       </c>
@@ -16315,7 +21010,7 @@
       <c r="Z22" s="30"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="96"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="75">
         <v>44883</v>
       </c>
@@ -16386,7 +21081,7 @@
       <c r="Z23" s="30"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C24" s="96"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="74">
         <v>44884</v>
       </c>
@@ -16457,7 +21152,7 @@
       <c r="Z24" s="30"/>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C25" s="96"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="75">
         <v>44885</v>
       </c>
@@ -16528,7 +21223,7 @@
       <c r="Z25" s="30"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="96"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="74">
         <v>44886</v>
       </c>
@@ -16599,7 +21294,7 @@
       <c r="Z26" s="30"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="96"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="75">
         <v>44887</v>
       </c>
@@ -16670,7 +21365,7 @@
       <c r="Z27" s="30"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="96"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="74">
         <v>44888</v>
       </c>
@@ -16741,7 +21436,7 @@
       <c r="Z28" s="30"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="96"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="75">
         <v>44889</v>
       </c>
@@ -16812,7 +21507,7 @@
       <c r="Z29" s="30"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="96"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="74">
         <v>44890</v>
       </c>
@@ -16883,7 +21578,7 @@
       <c r="Z30" s="30"/>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C31" s="96"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="75">
         <v>44891</v>
       </c>
@@ -16954,7 +21649,7 @@
       <c r="Z31" s="30"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C32" s="96"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="74">
         <v>44892</v>
       </c>
@@ -17025,7 +21720,7 @@
       <c r="Z32" s="30"/>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C33" s="96"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="75">
         <v>44893</v>
       </c>
@@ -17096,7 +21791,7 @@
       <c r="Z33" s="30"/>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="96"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="74">
         <v>44894</v>
       </c>
@@ -17167,7 +21862,7 @@
       <c r="Z34" s="30"/>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C35" s="97"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="75">
         <v>44895</v>
       </c>
@@ -19028,8 +23723,8 @@
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:K69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19051,38 +23746,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="18" t="s">
         <v>37</v>
       </c>
@@ -19853,18 +24548,18 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37"/>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
       <c r="N37" s="55"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -21227,25 +25922,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -21800,8 +26495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91593CE6-5A6E-43C0-A979-EF772C68CE8B}">
   <dimension ref="B2:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21814,7 +26509,7 @@
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -22028,6 +26723,10 @@
         <f>'Pedidos - Sal_Nov'!$K$35</f>
         <v>169</v>
       </c>
+      <c r="K11" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="104"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -22044,6 +26743,13 @@
         <f>'Pedidos - Sal_Nov'!$L$35</f>
         <v>130</v>
       </c>
+      <c r="K12" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="106">
+        <f>C49/'Estoque - Novembro'!F16</f>
+        <v>0.12042230287033982</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F13" s="52" t="s">
@@ -22055,6 +26761,13 @@
       <c r="H13" s="53">
         <f>'Pedidos - Sal_Nov'!$C$69</f>
         <v>150</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="106">
+        <f>1-C49/'Estoque - Novembro'!F16</f>
+        <v>0.87957769712966016</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -22087,6 +26800,10 @@
         <f>'Pedidos - Sal_Nov'!$E$69</f>
         <v>200</v>
       </c>
+      <c r="K15" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="104"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F16" s="52" t="s">
@@ -22099,8 +26816,15 @@
         <f>'Pedidos - Sal_Nov'!$F$69</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="106">
+        <f>C83/'Estoque - Novembro'!F26</f>
+        <v>3.9287585123101102E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F17" s="52" t="s">
         <v>139</v>
       </c>
@@ -22111,12 +26835,19 @@
         <f>'Pedidos - Sal_Nov'!$G$69</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="101" t="s">
+      <c r="K17" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="106">
+        <f>1-C83/'Estoque - Novembro'!F26</f>
+        <v>0.99607124148768988</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="104"/>
       <c r="F18" s="52" t="s">
         <v>140</v>
       </c>
@@ -22128,7 +26859,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="86">
         <v>44866</v>
       </c>
@@ -22145,8 +26876,12 @@
         <f>'Pedidos - Sal_Nov'!$I$69</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" s="104"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="86">
         <v>44867</v>
       </c>
@@ -22163,8 +26898,15 @@
         <f>'Pedidos - Sal_Nov'!$J$69</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="106">
+        <f>G60/'Estoque - Novembro'!K7</f>
+        <v>9.0692124105011929E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="86">
         <v>44868</v>
       </c>
@@ -22181,8 +26923,15 @@
         <f>'Pedidos - Sal_Nov'!$K$69</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="106">
+        <f>1-G60/'Estoque - Novembro'!K7</f>
+        <v>0.90930787589498807</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="86">
         <v>44869</v>
       </c>
@@ -22202,7 +26951,7 @@
       </c>
       <c r="I22" s="63"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="86">
         <v>44870</v>
       </c>
@@ -22221,16 +26970,27 @@
         <f>G22</f>
         <v>15kg</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="104"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="86">
         <v>44871</v>
       </c>
       <c r="C24" s="44">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="106">
+        <f>G94/'Estoque - Novembro'!K9</f>
+        <v>4.3503480278422275E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="86">
         <v>44872</v>
       </c>
@@ -22249,8 +27009,15 @@
       <c r="I25" s="57" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="106">
+        <f>1-G94/'Estoque - Novembro'!K9</f>
+        <v>0.95649651972157768</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="86">
         <v>44873</v>
       </c>
@@ -22274,7 +27041,7 @@
         <v>16773.849999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="86">
         <v>44874</v>
       </c>
@@ -22282,7 +27049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="86">
         <v>44875</v>
       </c>
@@ -22290,19 +27057,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="86">
         <v>44876</v>
       </c>
       <c r="C29" s="44">
         <v>67</v>
       </c>
-      <c r="F29" s="101" t="s">
+      <c r="F29" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="101"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="104"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="86">
         <v>44877</v>
       </c>
@@ -22316,7 +27083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="86">
         <v>44878</v>
       </c>
@@ -22330,7 +27097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="86">
         <v>44879</v>
       </c>
@@ -22607,10 +27374,10 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="101" t="s">
+      <c r="B52" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="101"/>
+      <c r="C52" s="104"/>
       <c r="F52" s="88">
         <v>44888</v>
       </c>
@@ -22761,10 +27528,10 @@
       <c r="C63" s="44">
         <v>5</v>
       </c>
-      <c r="F63" s="101" t="s">
+      <c r="F63" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="G63" s="101"/>
+      <c r="G63" s="104"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="86">
@@ -23153,8 +27920,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qesPiIN8f4DKqOvSJQvMImQaID6+dBjO9yUB3FG8JiOqYlHj6HbpbXMD21SdR4fNERSRdZyDGfgLz87HVfw7DQ==" saltValue="PFgJ5166VNmHeLv9eM0WOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="G23:H23"/>
@@ -23163,6 +27929,10 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K23:L23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -23172,8 +27942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C53BB89-B214-4F56-AE20-1D297E25D5EB}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23183,37 +27953,37 @@
   <sheetData>
     <row r="1" spans="1:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/The Project.xlsx
+++ b/The Project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\OneDrive\Documentos\PROJETOS\PLANILHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="14_{FBAAA31E-B43C-4F70-80D9-3FC29C9E37D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9C55F706-2A1A-4472-8371-C45738A5430B}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="14_{FBAAA31E-B43C-4F70-80D9-3FC29C9E37D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8454B222-33E8-4ADF-B6A6-55664D5B89A9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26520" windowHeight="11490" firstSheet="4" activeTab="8" xr2:uid="{CD8D6024-3018-49A4-82B6-2C8784DA9FAE}"/>
   </bookViews>
@@ -23,9 +23,6 @@
     <sheet name="Tabela_Auxiliar" sheetId="14" r:id="rId8"/>
     <sheet name="Layout_Dashboard_Relatório" sheetId="13" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1163,6 +1160,9 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4193,28 +4190,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27354388888888886"/>
-                      <c:h val="0.17356666666666665"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-B4A2-4A86-8B32-DFAEE0C72099}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4306,28 +4281,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.24606222222222227"/>
-                      <c:h val="0.17356666666666665"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B4A2-4A86-8B32-DFAEE0C72099}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4580,28 +4533,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.21438333333333334"/>
-                      <c:h val="0.17356666666666665"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3522-4144-A633-D41439D81ECA}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5288,28 +5219,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.21039666666666668"/>
-                      <c:h val="0.17356666666666665"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-EBA6-4A7E-ABCD-D2706F96F687}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -14448,76 +14357,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Formulas"/>
-      <sheetName val="Tabela_Clientes"/>
-      <sheetName val="Clientes_Cadastrados"/>
-      <sheetName val="Estoque - Novembro"/>
-      <sheetName val="Pedidos"/>
-      <sheetName val="Pedidos - Sal_Nov"/>
-      <sheetName val="Pedidos - Pele_Nov"/>
-      <sheetName val="Tabela_Auxiliar"/>
-      <sheetName val="Layout_Dashboard_Relatório"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7">
-        <row r="12">
-          <cell r="M12">
-            <v>6.9207836456558772E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="M13">
-            <v>0.93079216354344119</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16">
-            <v>1.6400014577790736E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="M17">
-            <v>0.98359998542220928</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="M20">
-            <v>7.9646017699115043E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>0.92035398230088494</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="M24">
-            <v>6.5934065934065936E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="M25">
-            <v>0.93406593406593408</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A1AB7E3-EB63-4FD0-990D-1C38AFE42261}" name="Tabela2" displayName="Tabela2" ref="D5:P35" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
   <autoFilter ref="D5:P35" xr:uid="{AEDA9DF6-C1F3-4BA3-B308-5815F8D1FE8C}"/>
@@ -15046,16 +14885,16 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G4" s="6"/>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
@@ -17096,17 +16935,17 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="91"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
@@ -19206,18 +19045,18 @@
       <c r="O2" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
@@ -19698,21 +19537,21 @@
       <c r="B4" s="55"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
       <c r="S4"/>
@@ -19734,7 +19573,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="97" t="s">
         <v>126</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -19803,7 +19642,7 @@
       <c r="Z5" s="30"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="74">
         <v>44866</v>
       </c>
@@ -19874,7 +19713,7 @@
       <c r="Z6" s="30"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="97"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="75">
         <v>44867</v>
       </c>
@@ -19945,7 +19784,7 @@
       <c r="Z7" s="30"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="97"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="74">
         <v>44868</v>
       </c>
@@ -20016,7 +19855,7 @@
       <c r="Z8" s="30"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="97"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="75">
         <v>44869</v>
       </c>
@@ -20087,7 +19926,7 @@
       <c r="Z9" s="30"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="74">
         <v>44870</v>
       </c>
@@ -20158,7 +19997,7 @@
       <c r="Z10" s="30"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="75">
         <v>44871</v>
       </c>
@@ -20229,7 +20068,7 @@
       <c r="Z11" s="30"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="97"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="74">
         <v>44872</v>
       </c>
@@ -20300,7 +20139,7 @@
       <c r="Z12" s="30"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="97"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="75">
         <v>44873</v>
       </c>
@@ -20371,7 +20210,7 @@
       <c r="Z13" s="30"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="97"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="74">
         <v>44874</v>
       </c>
@@ -20442,7 +20281,7 @@
       <c r="Z14" s="30"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="97"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="75">
         <v>44875</v>
       </c>
@@ -20513,7 +20352,7 @@
       <c r="Z15" s="30"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="97"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="74">
         <v>44876</v>
       </c>
@@ -20584,7 +20423,7 @@
       <c r="Z16" s="30"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C17" s="97"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="75">
         <v>44877</v>
       </c>
@@ -20655,7 +20494,7 @@
       <c r="Z17" s="30"/>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C18" s="97"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="74">
         <v>44878</v>
       </c>
@@ -20726,7 +20565,7 @@
       <c r="Z18" s="30"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="97"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="75">
         <v>44879</v>
       </c>
@@ -20797,7 +20636,7 @@
       <c r="Z19" s="30"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="97"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="74">
         <v>44880</v>
       </c>
@@ -20868,7 +20707,7 @@
       <c r="Z20" s="30"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="97"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="75">
         <v>44881</v>
       </c>
@@ -20939,7 +20778,7 @@
       <c r="Z21" s="30"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="97"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="74">
         <v>44882</v>
       </c>
@@ -21010,7 +20849,7 @@
       <c r="Z22" s="30"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="97"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="75">
         <v>44883</v>
       </c>
@@ -21081,7 +20920,7 @@
       <c r="Z23" s="30"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C24" s="97"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="74">
         <v>44884</v>
       </c>
@@ -21152,7 +20991,7 @@
       <c r="Z24" s="30"/>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C25" s="97"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="75">
         <v>44885</v>
       </c>
@@ -21223,7 +21062,7 @@
       <c r="Z25" s="30"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="97"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="74">
         <v>44886</v>
       </c>
@@ -21294,7 +21133,7 @@
       <c r="Z26" s="30"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="97"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="75">
         <v>44887</v>
       </c>
@@ -21365,7 +21204,7 @@
       <c r="Z27" s="30"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="97"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="74">
         <v>44888</v>
       </c>
@@ -21436,7 +21275,7 @@
       <c r="Z28" s="30"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="97"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="75">
         <v>44889</v>
       </c>
@@ -21507,7 +21346,7 @@
       <c r="Z29" s="30"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="97"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="74">
         <v>44890</v>
       </c>
@@ -21578,7 +21417,7 @@
       <c r="Z30" s="30"/>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C31" s="97"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="75">
         <v>44891</v>
       </c>
@@ -21649,7 +21488,7 @@
       <c r="Z31" s="30"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C32" s="97"/>
+      <c r="C32" s="98"/>
       <c r="D32" s="74">
         <v>44892</v>
       </c>
@@ -21720,7 +21559,7 @@
       <c r="Z32" s="30"/>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C33" s="97"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="75">
         <v>44893</v>
       </c>
@@ -21791,7 +21630,7 @@
       <c r="Z33" s="30"/>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="97"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="74">
         <v>44894</v>
       </c>
@@ -21862,7 +21701,7 @@
       <c r="Z34" s="30"/>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C35" s="98"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="75">
         <v>44895</v>
       </c>
@@ -23746,38 +23585,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
       <c r="L3" s="18" t="s">
         <v>37</v>
       </c>
@@ -24548,18 +24387,18 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37"/>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
       <c r="N37" s="55"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -25922,25 +25761,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -26519,16 +26358,16 @@
       <c r="D2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="K2" s="102" t="s">
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="K2" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
@@ -26627,11 +26466,11 @@
       <c r="K6" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="103" t="str">
+      <c r="L6" s="104" t="str">
         <f>_xlfn.IFS(M5=M3,K3,M5=M4,K4)</f>
         <v>Picanha</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="61" t="str">
         <f>L5</f>
         <v>2kg</v>
@@ -26723,10 +26562,10 @@
         <f>'Pedidos - Sal_Nov'!$K$35</f>
         <v>169</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="L11" s="104"/>
+      <c r="L11" s="105"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -26746,7 +26585,7 @@
       <c r="K12" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="L12" s="106">
+      <c r="L12" s="90">
         <f>C49/'Estoque - Novembro'!F16</f>
         <v>0.12042230287033982</v>
       </c>
@@ -26765,7 +26604,7 @@
       <c r="K13" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="L13" s="106">
+      <c r="L13" s="90">
         <f>1-C49/'Estoque - Novembro'!F16</f>
         <v>0.87957769712966016</v>
       </c>
@@ -26800,10 +26639,10 @@
         <f>'Pedidos - Sal_Nov'!$E$69</f>
         <v>200</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="104"/>
+      <c r="L15" s="105"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F16" s="52" t="s">
@@ -26819,7 +26658,7 @@
       <c r="K16" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="L16" s="106">
+      <c r="L16" s="90">
         <f>C83/'Estoque - Novembro'!F26</f>
         <v>3.9287585123101102E-3</v>
       </c>
@@ -26838,16 +26677,16 @@
       <c r="K17" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="106">
+      <c r="L17" s="90">
         <f>1-C83/'Estoque - Novembro'!F26</f>
         <v>0.99607124148768988</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="105"/>
       <c r="F18" s="52" t="s">
         <v>140</v>
       </c>
@@ -26876,10 +26715,10 @@
         <f>'Pedidos - Sal_Nov'!$I$69</f>
         <v>100</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="K19" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="104"/>
+      <c r="L19" s="105"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="86">
@@ -26901,7 +26740,7 @@
       <c r="K20" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="L20" s="106">
+      <c r="L20" s="90">
         <f>G60/'Estoque - Novembro'!K7</f>
         <v>9.0692124105011929E-2</v>
       </c>
@@ -26926,7 +26765,7 @@
       <c r="K21" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="L21" s="106">
+      <c r="L21" s="90">
         <f>1-G60/'Estoque - Novembro'!K7</f>
         <v>0.90930787589498807</v>
       </c>
@@ -26961,19 +26800,19 @@
       <c r="F23" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="103" t="str">
+      <c r="G23" s="104" t="str">
         <f>_xlfn.IFS(H22=H3,F3,H22=H4,F4,H22=H5,F5,H22=H6,F6,H22=H7,F7,H22=H8,F8,H22=H9,F9,H22=H10,F10,H22=H11,F11,H22=H12,F12,H22=H13,F415,H22=H14,F14,H22=H15,F15,H22=H16,F16,H22=H17,F17,H22=H18,F18,H22=H19,F19,H22=H20,F20,H22=H21,F21)</f>
         <v>Bancon II</v>
       </c>
-      <c r="H23" s="103"/>
+      <c r="H23" s="104"/>
       <c r="I23" s="61" t="str">
         <f>G22</f>
         <v>15kg</v>
       </c>
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="L23" s="104"/>
+      <c r="L23" s="105"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="86">
@@ -26985,7 +26824,7 @@
       <c r="K24" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="L24" s="106">
+      <c r="L24" s="90">
         <f>G94/'Estoque - Novembro'!K9</f>
         <v>4.3503480278422275E-2</v>
       </c>
@@ -27012,7 +26851,7 @@
       <c r="K25" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="L25" s="106">
+      <c r="L25" s="90">
         <f>1-G94/'Estoque - Novembro'!K9</f>
         <v>0.95649651972157768</v>
       </c>
@@ -27064,10 +26903,10 @@
       <c r="C29" s="44">
         <v>67</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="104"/>
+      <c r="G29" s="105"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="86">
@@ -27374,10 +27213,10 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="104"/>
+      <c r="C52" s="105"/>
       <c r="F52" s="88">
         <v>44888</v>
       </c>
@@ -27528,10 +27367,10 @@
       <c r="C63" s="44">
         <v>5</v>
       </c>
-      <c r="F63" s="104" t="s">
+      <c r="F63" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="G63" s="104"/>
+      <c r="G63" s="105"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="86">
@@ -27953,40 +27792,41 @@
   <sheetData>
     <row r="1" spans="1:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="PJDlSLslEEjd0pHVKVkFsp60mOq7zJJNqo/n08rBZIPHIJRIp6O9CLeaiFF0sZOu4ZwYmNTjpswAwXTuBbfk8w==" saltValue="/ujjYLtEPd20s24q/QYfvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:AC2"/>
   </mergeCells>
